--- a/Uloha8/Uloha8.xlsx
+++ b/Uloha8/Uloha8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AE1038-E071-403C-8D4E-F9FAABFCDFF4}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8463B5DD-B1FD-4619-95DC-846C9B184783}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,50 @@
   <definedNames>
     <definedName name="OLE_LINK10" localSheetId="0">Sheet1!$C$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Poznámka</t>
   </si>
@@ -389,16 +422,31 @@
     <t xml:space="preserve">u1_max = </t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>20,493,16</t>
+    <t xml:space="preserve">d_f0 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_0 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="##0.000E+0"/>
+    <numFmt numFmtId="167" formatCode="##0.00E+0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -756,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -770,12 +818,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,12 +833,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,12 +854,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,12 +899,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,28 +908,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="48" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="48" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -890,10 +994,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,362 +1259,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:O23"/>
+  <dimension ref="C2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="3:15" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="27" t="s">
+    <row r="3" spans="3:15" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="3:15" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="3:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="28"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="1"/>
-      <c r="M4" t="s">
+      <c r="M4" s="46" t="s">
         <v>32</v>
       </c>
       <c r="N4">
         <v>5.08</v>
       </c>
       <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="26"/>
+      <c r="N5" s="45">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="3:15" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="45">
+        <v>400000000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="35">
         <v>3.9940699999999998</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="41">
         <v>250.37065000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="37">
         <v>12.555</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="37">
         <v>11.074999999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="37">
         <v>15.74</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="37">
         <v>10.362</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="38">
         <v>37.686999999999998</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="3:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="36">
         <v>3.5430190000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="42">
         <v>282.24509999999998</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="39">
         <v>20.492000000000001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="39">
         <v>15.025</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="39">
         <v>23.677</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="39">
         <v>13.311999999999999</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="40">
         <v>53.625</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:15" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="3:15" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>0.1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="8">
         <v>1</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="3:15" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="3:15" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="E10" s="50">
+        <f>SQRT(POWER((N5*E7*1000)/(100*SQRT(3)),2)+POWER((E9*0.001)/(SQRT(3)),2))</f>
+        <v>1.1544333084858851E-3</v>
+      </c>
+      <c r="F10" s="36" cm="1">
+        <f t="array" ref="F10:K10">SQRT(POWER((N5*F7:K7*0.000001)/(100*SQRT(3)),2)+POWER((F9:K9*0.000000001)/(SQRT(3)),2))*1000000000</f>
+        <v>0.58185661624245422</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.57736164490038955</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0.57735912102903242</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.57736814855572594</v>
+      </c>
+      <c r="J10" s="48">
+        <v>0.57735801797527109</v>
+      </c>
+      <c r="K10" s="49">
+        <v>0.5774527621350658</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="3:15" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="3:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="E11" s="50">
+        <f>((2*E10)/(E7*1000))*100</f>
+        <v>5.7807364842673526E-5</v>
+      </c>
+      <c r="F11" s="52" cm="1">
+        <f t="array" ref="F11:K11">((2*F10:K10*0.000000001)/(F7:K7*0.000001))*100</f>
+        <v>4.6479618616835023E-4</v>
+      </c>
+      <c r="G11" s="50">
+        <v>9.1973181186840256E-3</v>
+      </c>
+      <c r="H11" s="53">
+        <v>1.0426349815422712E-2</v>
+      </c>
+      <c r="I11" s="50">
+        <v>7.3363170083319698E-3</v>
+      </c>
+      <c r="J11" s="53">
+        <v>1.11437563786001E-2</v>
+      </c>
+      <c r="K11" s="51">
+        <v>3.0644665913183108E-3</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="3:15" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="3:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="32.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="27" t="s">
+    <row r="14" spans="3:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="3:15" ht="18.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36" t="s">
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="3:15" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="3:15" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="19" t="s">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="3:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="38">
         <v>12.557</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="43">
         <v>12.5556</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="43">
         <v>12.555630000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="31.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="40">
         <v>20.492000000000001</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="44">
         <v>20.493099999999998</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="17" t="s">
+      <c r="G18" s="44">
+        <v>20.49316</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <v>0.1</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="16" t="s">
+    <row r="20" spans="3:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="3:7" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
+      <c r="F20" s="54">
+        <f>(0.025)/(F17*0.000001)</f>
+        <v>1991.1433941826758</v>
+      </c>
+      <c r="G20" s="54">
+        <f>(1)/(G17*0.000001)</f>
+        <v>79645.545464464944</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="3:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="18" t="s">
+      <c r="E21" s="57" cm="1">
+        <f t="array" ref="E21:G21">SQRT(POWER((N5*E17:G17*0.000001)/(100*SQRT(3)),2)+POWER((E19:G19*0.000000001)/(E24:G24*SQRT(3)),2))*1000000000</f>
+        <v>0.57736164852492311</v>
+      </c>
+      <c r="F21" s="55">
+        <v>3.6246055017275908E-3</v>
+      </c>
+      <c r="G21" s="56">
+        <v>3.6244981808975702E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="3:7" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E22" s="51" cm="1">
+        <f t="array" ref="E22:G22">((2*_xlfn.ANCHORARRAY(E21)*0.000000001)/(E17:G17*0.000001))*100</f>
+        <v>9.1958532854172666E-3</v>
+      </c>
+      <c r="F22" s="58">
+        <v>5.7736874410264611E-5</v>
+      </c>
+      <c r="G22" s="59">
+        <v>5.7735026930509582E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1991.1433941826758</v>
+      </c>
+      <c r="G24">
+        <v>79645.545464464944</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C3:D3"/>
@@ -1527,6 +1710,11 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Uloha8/Uloha8.xlsx
+++ b/Uloha8/Uloha8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8463B5DD-B1FD-4619-95DC-846C9B184783}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AEC67B-7AA4-4F34-AFC0-EB61D4CE7194}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="720" windowWidth="15480" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -857,57 +857,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,7 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -977,6 +925,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,6 +993,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,7 +1265,7 @@
   <dimension ref="C2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,41 +1282,41 @@
       </c>
     </row>
     <row r="3" spans="3:15" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="19"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="3:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="19"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="29" t="s">
         <v>32</v>
       </c>
       <c r="N4">
@@ -1324,34 +1327,34 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="44" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="28">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="O5" t="s">
@@ -1359,20 +1362,20 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="28">
         <v>400000000</v>
       </c>
       <c r="O6" t="s">
@@ -1386,25 +1389,25 @@
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="18">
         <v>3.9940699999999998</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="24">
         <v>250.37065000000001</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="20">
         <v>12.555</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="20">
         <v>11.074999999999999</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="20">
         <v>15.74</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="20">
         <v>10.362</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="21">
         <v>37.686999999999998</v>
       </c>
       <c r="L7" s="1"/>
@@ -1416,25 +1419,25 @@
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="19">
         <v>3.5430190000000001</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="25">
         <v>282.24509999999998</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="22">
         <v>20.492000000000001</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="22">
         <v>15.025</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="22">
         <v>23.677</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="22">
         <v>13.311999999999999</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="23">
         <v>53.625</v>
       </c>
       <c r="L8" s="1"/>
@@ -1476,27 +1479,27 @@
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="32">
         <f>SQRT(POWER((N5*E7*1000)/(100*SQRT(3)),2)+POWER((E9*0.001)/(SQRT(3)),2))</f>
         <v>1.1544333084858851E-3</v>
       </c>
-      <c r="F10" s="36" cm="1">
+      <c r="F10" s="19" cm="1">
         <f t="array" ref="F10:K10">SQRT(POWER((N5*F7:K7*0.000001)/(100*SQRT(3)),2)+POWER((F9:K9*0.000000001)/(SQRT(3)),2))*1000000000</f>
         <v>0.58185661624245422</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="19">
         <v>0.57736164490038955</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="19">
         <v>0.57735912102903242</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="19">
         <v>0.57736814855572594</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="30">
         <v>0.57735801797527109</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="31">
         <v>0.5774527621350658</v>
       </c>
       <c r="L10" s="1"/>
@@ -1508,33 +1511,33 @@
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="32">
         <f>((2*E10)/(E7*1000))*100</f>
         <v>5.7807364842673526E-5</v>
       </c>
-      <c r="F11" s="52" cm="1">
+      <c r="F11" s="34" cm="1">
         <f t="array" ref="F11:K11">((2*F10:K10*0.000000001)/(F7:K7*0.000001))*100</f>
         <v>4.6479618616835023E-4</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="32">
         <v>9.1973181186840256E-3</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="35">
         <v>1.0426349815422712E-2</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="32">
         <v>7.3363170083319698E-3</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="35">
         <v>1.11437563786001E-2</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="33">
         <v>3.0644665913183108E-3</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="O12" s="47">
+      <c r="O12">
         <v>1E-4</v>
       </c>
     </row>
@@ -1544,33 +1547,33 @@
       </c>
     </row>
     <row r="14" spans="3:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="3:15" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="3:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="15" t="s">
         <v>24</v>
       </c>
@@ -1585,13 +1588,13 @@
       <c r="D17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="21">
         <v>12.557</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="26">
         <v>12.5556</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="26">
         <v>12.555630000000001</v>
       </c>
     </row>
@@ -1602,13 +1605,13 @@
       <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="23">
         <v>20.492000000000001</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="27">
         <v>20.493099999999998</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="27">
         <v>20.49316</v>
       </c>
     </row>
@@ -1639,11 +1642,11 @@
       <c r="E20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="36">
         <f>(0.025)/(F17*0.000001)</f>
         <v>1991.1433941826758</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="36">
         <f>(1)/(G17*0.000001)</f>
         <v>79645.545464464944</v>
       </c>
@@ -1655,14 +1658,14 @@
       <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="57" cm="1">
+      <c r="E21" s="39" cm="1">
         <f t="array" ref="E21:G21">SQRT(POWER((N5*E17:G17*0.000001)/(100*SQRT(3)),2)+POWER((E19:G19*0.000000001)/(E24:G24*SQRT(3)),2))*1000000000</f>
         <v>0.57736164852492311</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="37">
         <v>3.6246055017275908E-3</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="38">
         <v>3.6244981808975702E-3</v>
       </c>
     </row>
@@ -1673,14 +1676,14 @@
       <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="51" cm="1">
+      <c r="E22" s="33" cm="1">
         <f t="array" ref="E22:G22">((2*_xlfn.ANCHORARRAY(E21)*0.000000001)/(E17:G17*0.000001))*100</f>
         <v>9.1958532854172666E-3</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="40">
         <v>5.7736874410264611E-5</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="41">
         <v>5.7735026930509582E-5</v>
       </c>
     </row>
@@ -1698,6 +1701,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C3:D3"/>
@@ -1710,11 +1718,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
